--- a/nr-add-changelog/ig/StructureDefinition-cds-organization.xlsx
+++ b/nr-add-changelog/ig/StructureDefinition-cds-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:11:50+00:00</t>
+    <t>2025-11-18T17:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-changelog/ig/StructureDefinition-cds-organization.xlsx
+++ b/nr-add-changelog/ig/StructureDefinition-cds-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8746" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8746" uniqueCount="867">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:12:23+00:00</t>
+    <t>2025-11-18T17:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|1.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -397,7 +397,7 @@
     <t>as-ext-data-trace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace|1.1.0}
 </t>
   </si>
   <si>
@@ -464,7 +464,7 @@
     <t>Organization.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0</t>
   </si>
   <si>
     <t>Organization.meta.security</t>
@@ -518,7 +518,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -542,7 +542,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -585,7 +585,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -661,7 +661,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.1.0}
 </t>
   </si>
   <si>
@@ -678,7 +678,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.1.0}
 </t>
   </si>
   <si>
@@ -691,7 +691,7 @@
     <t>usePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {organization-period}
+    <t xml:space="preserve">Extension {organization-period|5.2.0}
 </t>
   </si>
   <si>
@@ -843,7 +843,7 @@
     <t>as-ext-digital-certificate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-digital-certificate}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-digital-certificate|1.1.0}
 </t>
   </si>
   <si>
@@ -859,7 +859,7 @@
     <t>as-ext-organization-pharmacy-licence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-pharmacy-licence}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-pharmacy-licence|1.1.0}
 </t>
   </si>
   <si>
@@ -878,7 +878,7 @@
     <t>as-ext-organization-pricing-model</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-pricing-model}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-pricing-model|1.1.0}
 </t>
   </si>
   <si>
@@ -897,7 +897,7 @@
     <t>as-ext-organization-closing-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-closing-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-closing-type|1.1.0}
 </t>
   </si>
   <si>
@@ -919,7 +919,7 @@
     <t>as-ext-organization-budget-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-budget-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-budget-type|1.1.0}
 </t>
   </si>
   <si>
@@ -938,7 +938,7 @@
     <t>as-ext-organization-authorization-deadline</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-authorization-deadline}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-authorization-deadline|1.1.0}
 </t>
   </si>
   <si>
@@ -1102,7 +1102,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1207,7 +1207,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1697,9 +1697,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Organization.identifier:identifierOI.system</t>
   </si>
   <si>
@@ -1710,10 +1707,6 @@
   </si>
   <si>
     <t>Organization.identifier:identifierOI.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -1770,7 +1763,7 @@
     <t>Used to categorize the organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+    <t>http://hl7.org/fhir/ValueSet/organization-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -1797,7 +1790,7 @@
 Entité Géographique : GEOGRAPHICAL-ENTITY</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.1.0</t>
   </si>
   <si>
     <t>Organization.type:organizationType.id</t>
@@ -1818,7 +1811,7 @@
     <t>as-ext-organization-types</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-types}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-types|1.1.0}
 </t>
   </si>
   <si>
@@ -1858,7 +1851,7 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/ValueSet/as-vs-organization-types</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/ValueSet/as-vs-organization-types|1.1.0</t>
   </si>
   <si>
     <t>Organization.type:organizationType.coding</t>
@@ -1927,7 +1920,7 @@
     <t>Secteurs d'activité des établissements avec la même activité dans le RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS|20250828120000</t>
   </si>
   <si>
     <t>EntiteGeographique.secteurActivite</t>
@@ -1990,7 +1983,7 @@
     <t>Catégorie d'établissement du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS|20241025120000</t>
   </si>
   <si>
     <t>EntiteGeographique.categorieEtablissement</t>
@@ -2039,7 +2032,7 @@
 Plus précisément, on distingue le code APET pour les EG (Synonyme : codeAPEN).</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J99-InseeNAFrav2Niveau5-RASS/FHIR/JDV-J99-InseeNAFrav2Niveau5-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J99-InseeNAFrav2Niveau5-RASS/FHIR/JDV-J99-InseeNAFrav2Niveau5-RASS|20200424120000</t>
   </si>
   <si>
     <t>EntiteJuridique.codeAPEN</t>
@@ -2084,7 +2077,7 @@
     <t>Statut juridique FINESS qui caractérise la situation juridique de la personne morale (Synonyme : statutJuridiqueINSEE).</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J100-FinessStatutJuridique-RASS/FHIR/JDV-J100-FinessStatutJuridique-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J100-FinessStatutJuridique-RASS/FHIR/JDV-J100-FinessStatutJuridique-RASS|20200424120000</t>
   </si>
   <si>
     <t>EntiteJuridique.statutJuridique</t>
@@ -2129,7 +2122,7 @@
     <t>Modalités de participation au service public hospitalier (Synonyme : modaliteParticipationSPH).</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J162-ESPIC-RASS/FHIR/JDV-J162-ESPIC-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J162-ESPIC-RASS/FHIR/JDV-J162-ESPIC-RASS|20210528120000</t>
   </si>
   <si>
     <t>EntiteGeographique.modaliteParticipationSPH</t>
@@ -2171,7 +2164,7 @@
     <t>Le type d’établissement détermine si c'est un établissement principal ou secondaire.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/ValueSet/as-vs-type-etablissement</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/ValueSet/as-vs-type-etablissement|1.1.0</t>
   </si>
   <si>
     <t>EntiteGeographique.typeEtablissement</t>
@@ -2259,7 +2252,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -2310,7 +2303,7 @@
     <t>emailType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type|2.1.0}
 </t>
   </si>
   <si>
@@ -2448,7 +2441,7 @@
     <t>mailbox-mss</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-mailbox-mss}
+    <t xml:space="preserve">ContactPoint {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-mailbox-mss|1.1.0}
 </t>
   </si>
   <si>
@@ -2461,7 +2454,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-address-extended}
+    <t xml:space="preserve">Address {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-address-extended|1.1.0}
 </t>
   </si>
   <si>
@@ -2499,7 +2492,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|1.1.0|https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization|2.0.1)
 </t>
   </si>
   <si>
@@ -2655,7 +2648,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
   </si>
   <si>
     <t>./type</t>
@@ -2699,7 +2692,7 @@
     <t>Organization.contact.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -2712,7 +2705,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -3061,7 +3054,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="186.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="199.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3076,7 +3069,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="107.44921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="76.87890625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -16031,7 +16024,7 @@
         <v>345</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>537</v>
+        <v>346</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>79</v>
@@ -16084,7 +16077,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>350</v>
@@ -16206,7 +16199,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>362</v>
@@ -16326,7 +16319,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>372</v>
@@ -16444,7 +16437,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>380</v>
@@ -16470,7 +16463,7 @@
         <v>92</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>542</v>
+        <v>381</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>382</v>
@@ -16564,10 +16557,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16593,23 +16586,23 @@
         <v>480</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="P113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q113" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="O113" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="P113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q113" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="R113" t="s" s="2">
         <v>79</v>
       </c>
@@ -16653,7 +16646,7 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16671,27 +16664,27 @@
         <v>79</v>
       </c>
       <c r="AL113" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM113" t="s" s="2">
+      <c r="AO113" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AP113" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>553</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16717,16 +16710,16 @@
         <v>339</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>79</v>
@@ -16754,16 +16747,16 @@
         <v>167</v>
       </c>
       <c r="Y114" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB114" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AC114" s="2"/>
       <c r="AD114" t="s" s="2">
@@ -16773,7 +16766,7 @@
         <v>118</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16794,27 +16787,27 @@
         <v>79</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>79</v>
@@ -16839,16 +16832,16 @@
         <v>339</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M115" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O115" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>79</v>
@@ -16877,7 +16870,7 @@
       </c>
       <c r="Y115" s="2"/>
       <c r="Z115" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>79</v>
@@ -16895,7 +16888,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16916,24 +16909,24 @@
         <v>79</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -17048,10 +17041,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17166,13 +17159,13 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B118" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C118" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>79</v>
@@ -17194,13 +17187,13 @@
         <v>79</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17286,10 +17279,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17404,10 +17397,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17522,10 +17515,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17565,7 +17558,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>79</v>
@@ -17642,10 +17635,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17674,7 +17667,7 @@
         <v>232</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17686,7 +17679,7 @@
         <v>79</v>
       </c>
       <c r="S122" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="T122" t="s" s="2">
         <v>79</v>
@@ -17705,7 +17698,7 @@
       </c>
       <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>79</v>
@@ -17758,10 +17751,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17880,10 +17873,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17998,10 +17991,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -18118,10 +18111,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18240,10 +18233,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18360,10 +18353,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18389,7 +18382,7 @@
         <v>177</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>465</v>
@@ -18480,10 +18473,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18600,10 +18593,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18722,10 +18715,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18844,13 +18837,13 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D132" t="s" s="2">
         <v>79</v>
@@ -18875,16 +18868,16 @@
         <v>339</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="M132" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O132" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>79</v>
@@ -18913,7 +18906,7 @@
       </c>
       <c r="Y132" s="2"/>
       <c r="Z132" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>79</v>
@@ -18931,7 +18924,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18949,27 +18942,27 @@
         <v>79</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP132" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19084,10 +19077,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19202,13 +19195,13 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B135" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C135" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>79</v>
@@ -19230,13 +19223,13 @@
         <v>79</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19322,10 +19315,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19440,10 +19433,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19558,10 +19551,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19601,7 +19594,7 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>79</v>
@@ -19678,10 +19671,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19710,7 +19703,7 @@
         <v>232</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -19722,7 +19715,7 @@
         <v>79</v>
       </c>
       <c r="S139" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>79</v>
@@ -19741,7 +19734,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>79</v>
@@ -19794,10 +19787,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19916,10 +19909,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -20034,10 +20027,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20154,10 +20147,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20276,10 +20269,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20396,10 +20389,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20425,7 +20418,7 @@
         <v>177</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>465</v>
@@ -20516,10 +20509,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20636,10 +20629,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20758,10 +20751,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20880,13 +20873,13 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D149" t="s" s="2">
         <v>79</v>
@@ -20911,16 +20904,16 @@
         <v>339</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="M149" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O149" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>79</v>
@@ -20949,7 +20942,7 @@
       </c>
       <c r="Y149" s="2"/>
       <c r="Z149" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>79</v>
@@ -20967,7 +20960,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20985,27 +20978,27 @@
         <v>79</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP149" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21120,10 +21113,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21240,10 +21233,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21362,10 +21355,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21480,10 +21473,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21600,10 +21593,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21722,10 +21715,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21842,10 +21835,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21871,7 +21864,7 @@
         <v>177</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M157" t="s" s="2">
         <v>465</v>
@@ -21962,10 +21955,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22082,10 +22075,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22204,10 +22197,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22326,13 +22319,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>79</v>
@@ -22357,16 +22350,16 @@
         <v>339</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M161" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O161" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>79</v>
@@ -22395,7 +22388,7 @@
       </c>
       <c r="Y161" s="2"/>
       <c r="Z161" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>79</v>
@@ -22413,7 +22406,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22428,30 +22421,30 @@
         <v>103</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP161" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22566,10 +22559,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22684,13 +22677,13 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B164" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C164" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="C164" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>79</v>
@@ -22712,13 +22705,13 @@
         <v>79</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -22804,10 +22797,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22922,10 +22915,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23040,10 +23033,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23083,7 +23076,7 @@
       </c>
       <c r="Q167" s="2"/>
       <c r="R167" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>79</v>
@@ -23160,10 +23153,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23192,7 +23185,7 @@
         <v>232</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23204,7 +23197,7 @@
         <v>79</v>
       </c>
       <c r="S168" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>79</v>
@@ -23223,7 +23216,7 @@
       </c>
       <c r="Y168" s="2"/>
       <c r="Z168" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>79</v>
@@ -23276,10 +23269,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23398,10 +23391,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23520,13 +23513,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>79</v>
@@ -23551,16 +23544,16 @@
         <v>339</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M171" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O171" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>79</v>
@@ -23589,7 +23582,7 @@
       </c>
       <c r="Y171" s="2"/>
       <c r="Z171" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>79</v>
@@ -23607,7 +23600,7 @@
         <v>79</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23622,30 +23615,30 @@
         <v>103</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP171" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23760,10 +23753,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23878,13 +23871,13 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B174" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C174" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>79</v>
@@ -23906,13 +23899,13 @@
         <v>79</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -23998,10 +23991,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24116,10 +24109,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24234,10 +24227,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24277,7 +24270,7 @@
       </c>
       <c r="Q177" s="2"/>
       <c r="R177" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S177" t="s" s="2">
         <v>79</v>
@@ -24354,10 +24347,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24386,7 +24379,7 @@
         <v>232</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -24398,7 +24391,7 @@
         <v>79</v>
       </c>
       <c r="S178" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="T178" t="s" s="2">
         <v>79</v>
@@ -24417,7 +24410,7 @@
       </c>
       <c r="Y178" s="2"/>
       <c r="Z178" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>79</v>
@@ -24470,10 +24463,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24592,10 +24585,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24714,13 +24707,13 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>79</v>
@@ -24745,16 +24738,16 @@
         <v>339</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M181" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N181" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O181" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O181" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>79</v>
@@ -24783,7 +24776,7 @@
       </c>
       <c r="Y181" s="2"/>
       <c r="Z181" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AA181" t="s" s="2">
         <v>79</v>
@@ -24801,7 +24794,7 @@
         <v>79</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24819,27 +24812,27 @@
         <v>79</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP181" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24954,10 +24947,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25072,13 +25065,13 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B184" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C184" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="C184" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="D184" t="s" s="2">
         <v>79</v>
@@ -25100,13 +25093,13 @@
         <v>79</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -25192,10 +25185,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25310,10 +25303,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25428,10 +25421,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25471,7 +25464,7 @@
       </c>
       <c r="Q187" s="2"/>
       <c r="R187" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S187" t="s" s="2">
         <v>79</v>
@@ -25548,10 +25541,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25580,7 +25573,7 @@
         <v>232</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -25592,7 +25585,7 @@
         <v>79</v>
       </c>
       <c r="S188" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="T188" t="s" s="2">
         <v>79</v>
@@ -25611,7 +25604,7 @@
       </c>
       <c r="Y188" s="2"/>
       <c r="Z188" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>79</v>
@@ -25664,10 +25657,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25786,10 +25779,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25908,13 +25901,13 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D191" t="s" s="2">
         <v>79</v>
@@ -25939,16 +25932,16 @@
         <v>339</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M191" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O191" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>79</v>
@@ -25977,7 +25970,7 @@
       </c>
       <c r="Y191" s="2"/>
       <c r="Z191" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AA191" t="s" s="2">
         <v>79</v>
@@ -25995,7 +25988,7 @@
         <v>79</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -26013,27 +26006,27 @@
         <v>79</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AN191" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AO191" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP191" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26148,10 +26141,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26266,13 +26259,13 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B194" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C194" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="C194" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="D194" t="s" s="2">
         <v>79</v>
@@ -26294,13 +26287,13 @@
         <v>79</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -26386,10 +26379,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26504,10 +26497,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26622,10 +26615,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26665,7 +26658,7 @@
       </c>
       <c r="Q197" s="2"/>
       <c r="R197" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S197" t="s" s="2">
         <v>79</v>
@@ -26742,10 +26735,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26774,7 +26767,7 @@
         <v>232</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -26786,7 +26779,7 @@
         <v>79</v>
       </c>
       <c r="S198" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="T198" t="s" s="2">
         <v>79</v>
@@ -26805,7 +26798,7 @@
       </c>
       <c r="Y198" s="2"/>
       <c r="Z198" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AA198" t="s" s="2">
         <v>79</v>
@@ -26858,10 +26851,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26980,10 +26973,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -27102,10 +27095,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27131,16 +27124,16 @@
         <v>105</v>
       </c>
       <c r="L201" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="N201" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="M201" t="s" s="2">
+      <c r="O201" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="N201" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="O201" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>79</v>
@@ -27189,7 +27182,7 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
@@ -27204,19 +27197,19 @@
         <v>103</v>
       </c>
       <c r="AK201" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="AL201" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="AM201" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="AL201" t="s" s="2">
+      <c r="AN201" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="AM201" t="s" s="2">
+      <c r="AO201" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="AN201" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="AO201" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="AP201" t="s" s="2">
         <v>79</v>
@@ -27224,10 +27217,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27253,16 +27246,16 @@
         <v>105</v>
       </c>
       <c r="L202" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="N202" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="M202" t="s" s="2">
+      <c r="O202" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="O202" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>79</v>
@@ -27311,7 +27304,7 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
@@ -27326,16 +27319,16 @@
         <v>103</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AM202" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>79</v>
@@ -27346,10 +27339,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27372,19 +27365,19 @@
         <v>79</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="M203" t="s" s="2">
         <v>721</v>
       </c>
-      <c r="L203" t="s" s="2">
+      <c r="N203" t="s" s="2">
         <v>722</v>
       </c>
-      <c r="M203" t="s" s="2">
+      <c r="O203" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>79</v>
@@ -27421,7 +27414,7 @@
         <v>79</v>
       </c>
       <c r="AB203" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AC203" s="2"/>
       <c r="AD203" t="s" s="2">
@@ -27431,7 +27424,7 @@
         <v>118</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
@@ -27443,22 +27436,22 @@
         <v>209</v>
       </c>
       <c r="AJ203" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="AL203" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="AK203" t="s" s="2">
+      <c r="AM203" t="s" s="2">
         <v>728</v>
       </c>
-      <c r="AL203" t="s" s="2">
+      <c r="AN203" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="AM203" t="s" s="2">
+      <c r="AO203" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="AN203" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="AO203" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="AP203" t="s" s="2">
         <v>79</v>
@@ -27466,10 +27459,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27584,10 +27577,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27704,13 +27697,13 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B206" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="C206" t="s" s="2">
         <v>734</v>
-      </c>
-      <c r="C206" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>79</v>
@@ -27732,13 +27725,13 @@
         <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="M206" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -27824,10 +27817,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27853,10 +27846,10 @@
         <v>177</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -27886,37 +27879,37 @@
         <v>332</v>
       </c>
       <c r="Y207" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF207" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="Z207" t="s" s="2">
+      <c r="AG207" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH207" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI207" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="AA207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF207" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="AG207" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH207" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI207" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>103</v>
@@ -27928,13 +27921,13 @@
         <v>79</v>
       </c>
       <c r="AM207" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="AN207" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="AO207" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="AN207" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="AO207" t="s" s="2">
-        <v>749</v>
       </c>
       <c r="AP207" t="s" s="2">
         <v>79</v>
@@ -27942,10 +27935,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27971,16 +27964,16 @@
         <v>105</v>
       </c>
       <c r="L208" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="N208" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="O208" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="O208" t="s" s="2">
-        <v>754</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>79</v>
@@ -28029,7 +28022,7 @@
         <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
@@ -28050,10 +28043,10 @@
         <v>79</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>370</v>
@@ -28064,10 +28057,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28093,16 +28086,16 @@
         <v>177</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="N209" t="s" s="2">
         <v>759</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="O209" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>762</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>79</v>
@@ -28130,28 +28123,28 @@
         <v>332</v>
       </c>
       <c r="Y209" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="Z209" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="AA209" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB209" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC209" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD209" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE209" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF209" t="s" s="2">
         <v>763</v>
-      </c>
-      <c r="Z209" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="AA209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF209" t="s" s="2">
-        <v>765</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -28172,13 +28165,13 @@
         <v>79</v>
       </c>
       <c r="AM209" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="AN209" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="AO209" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="AN209" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="AO209" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="AP209" t="s" s="2">
         <v>79</v>
@@ -28186,10 +28179,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28212,16 +28205,16 @@
         <v>92</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="M210" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="L210" t="s" s="2">
+      <c r="N210" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>773</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -28271,7 +28264,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -28306,10 +28299,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28335,10 +28328,10 @@
         <v>231</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
@@ -28389,7 +28382,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28413,7 +28406,7 @@
         <v>200</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>378</v>
@@ -28424,13 +28417,13 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D212" t="s" s="2">
         <v>79</v>
@@ -28452,19 +28445,19 @@
         <v>79</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="M212" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="O212" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>79</v>
@@ -28513,7 +28506,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28525,22 +28518,22 @@
         <v>209</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AM212" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="AN212" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AO212" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="AN212" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="AO212" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="AP212" t="s" s="2">
         <v>79</v>
@@ -28548,10 +28541,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28574,19 +28567,19 @@
         <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M213" t="s" s="2">
         <v>786</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="M213" t="s" s="2">
+      <c r="O213" t="s" s="2">
         <v>788</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>79</v>
@@ -28635,7 +28628,7 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
@@ -28647,22 +28640,22 @@
         <v>209</v>
       </c>
       <c r="AJ213" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="AK213" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="AL213" t="s" s="2">
         <v>791</v>
       </c>
-      <c r="AK213" t="s" s="2">
+      <c r="AM213" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="AL213" t="s" s="2">
+      <c r="AN213" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="AM213" t="s" s="2">
+      <c r="AO213" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="AN213" t="s" s="2">
-        <v>795</v>
-      </c>
-      <c r="AO213" t="s" s="2">
-        <v>796</v>
       </c>
       <c r="AP213" t="s" s="2">
         <v>79</v>
@@ -28670,10 +28663,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28696,17 +28689,17 @@
         <v>92</v>
       </c>
       <c r="K214" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="L214" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="M214" t="s" s="2">
         <v>798</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="M214" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>79</v>
@@ -28755,7 +28748,7 @@
         <v>79</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
@@ -28773,13 +28766,13 @@
         <v>79</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AO214" t="s" s="2">
         <v>109</v>
@@ -28790,10 +28783,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28908,10 +28901,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -29028,10 +29021,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29057,13 +29050,13 @@
         <v>105</v>
       </c>
       <c r="L217" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="N217" t="s" s="2">
         <v>807</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>809</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -29113,7 +29106,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -29122,7 +29115,7 @@
         <v>91</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AJ217" t="s" s="2">
         <v>103</v>
@@ -29148,10 +29141,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29177,13 +29170,13 @@
         <v>138</v>
       </c>
       <c r="L218" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="N218" t="s" s="2">
         <v>813</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>814</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>815</v>
       </c>
       <c r="O218" s="2"/>
       <c r="P218" t="s" s="2">
@@ -29213,7 +29206,7 @@
       </c>
       <c r="Y218" s="2"/>
       <c r="Z218" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AA218" t="s" s="2">
         <v>79</v>
@@ -29231,7 +29224,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
@@ -29266,10 +29259,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29295,13 +29288,13 @@
         <v>305</v>
       </c>
       <c r="L219" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="M219" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="N219" t="s" s="2">
         <v>818</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>820</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
@@ -29351,7 +29344,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29375,7 +29368,7 @@
         <v>79</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AO219" t="s" s="2">
         <v>79</v>
@@ -29386,10 +29379,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29415,13 +29408,13 @@
         <v>105</v>
       </c>
       <c r="L220" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="N220" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
@@ -29471,7 +29464,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29506,10 +29499,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29532,19 +29525,19 @@
         <v>79</v>
       </c>
       <c r="K221" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="L221" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="M221" t="s" s="2">
         <v>829</v>
       </c>
-      <c r="L221" t="s" s="2">
+      <c r="N221" t="s" s="2">
         <v>830</v>
       </c>
-      <c r="M221" t="s" s="2">
+      <c r="O221" t="s" s="2">
         <v>831</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="O221" t="s" s="2">
-        <v>833</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>79</v>
@@ -29593,7 +29586,7 @@
         <v>79</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
@@ -29617,7 +29610,7 @@
         <v>79</v>
       </c>
       <c r="AN221" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AO221" t="s" s="2">
         <v>79</v>
@@ -29628,10 +29621,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -29746,10 +29739,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29866,14 +29859,14 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
@@ -29895,10 +29888,10 @@
         <v>112</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="N224" t="s" s="2">
         <v>115</v>
@@ -29953,7 +29946,7 @@
         <v>79</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>80</v>
@@ -29988,10 +29981,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -30017,14 +30010,14 @@
         <v>339</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>79</v>
@@ -30052,10 +30045,10 @@
         <v>159</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>79</v>
@@ -30073,7 +30066,7 @@
         <v>79</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>80</v>
@@ -30097,7 +30090,7 @@
         <v>79</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="AO225" t="s" s="2">
         <v>79</v>
@@ -30108,10 +30101,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30134,17 +30127,17 @@
         <v>79</v>
       </c>
       <c r="K226" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="M226" t="s" s="2">
         <v>850</v>
-      </c>
-      <c r="L226" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>852</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>79</v>
@@ -30193,7 +30186,7 @@
         <v>79</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>80</v>
@@ -30214,10 +30207,10 @@
         <v>79</v>
       </c>
       <c r="AM226" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AN226" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AO226" t="s" s="2">
         <v>79</v>
@@ -30228,10 +30221,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30254,17 +30247,17 @@
         <v>79</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="M227" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>723</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="P227" t="s" s="2">
         <v>79</v>
@@ -30313,7 +30306,7 @@
         <v>79</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>80</v>
@@ -30325,7 +30318,7 @@
         <v>209</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AK227" t="s" s="2">
         <v>79</v>
@@ -30334,13 +30327,13 @@
         <v>79</v>
       </c>
       <c r="AM227" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="AN227" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AO227" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="AN227" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="AO227" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="AP227" t="s" s="2">
         <v>79</v>
@@ -30348,10 +30341,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30374,19 +30367,19 @@
         <v>79</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="O228" t="s" s="2">
         <v>861</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="O228" t="s" s="2">
-        <v>863</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>79</v>
@@ -30435,7 +30428,7 @@
         <v>79</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>80</v>
@@ -30456,13 +30449,13 @@
         <v>79</v>
       </c>
       <c r="AM228" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="AN228" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="AO228" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="AN228" t="s" s="2">
-        <v>795</v>
-      </c>
-      <c r="AO228" t="s" s="2">
-        <v>796</v>
       </c>
       <c r="AP228" t="s" s="2">
         <v>79</v>
@@ -30470,10 +30463,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -30496,17 +30489,17 @@
         <v>79</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="M229" t="s" s="2">
         <v>865</v>
-      </c>
-      <c r="L229" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="P229" t="s" s="2">
         <v>79</v>
@@ -30555,7 +30548,7 @@
         <v>79</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>80</v>
